--- a/cr-calculator/src/main/resources/templates/statistics-by-cr.xlsx
+++ b/cr-calculator/src/main/resources/templates/statistics-by-cr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikola\Desktop\cr-calculator\cr-calculator\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA93369-3274-42CA-9A76-1A27563D99B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BAA04E-D72F-4C97-A9F8-461923559DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="45" windowWidth="16905" windowHeight="15180" xr2:uid="{F6BA8626-2D64-4E50-B331-3013EC56ABA4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16905" windowHeight="15180" xr2:uid="{F6BA8626-2D64-4E50-B331-3013EC56ABA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,13 +62,13 @@
     <t>Max Damage</t>
   </si>
   <si>
-    <t>0.125</t>
+    <t>1/8</t>
   </si>
   <si>
-    <t>0.25</t>
+    <t>1/4</t>
   </si>
   <si>
-    <t>0.5</t>
+    <t>1/2</t>
   </si>
 </sst>
 </file>
@@ -112,13 +112,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -135,7 +140,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C09B016-9C1D-48F6-A0CA-95141BCBF1FB}" name="Table2" displayName="Table2" ref="B2:J36" totalsRowShown="0">
   <autoFilter ref="B2:J36" xr:uid="{5C09B016-9C1D-48F6-A0CA-95141BCBF1FB}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{126711C7-2189-4D1D-98E4-7CAFE7A9F8EC}" name="CR"/>
+    <tableColumn id="1" xr3:uid="{126711C7-2189-4D1D-98E4-7CAFE7A9F8EC}" name="CR" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{8BE88540-AAAC-4D5C-98E6-09E8F6F1D4BA}" name="Prof. Bonus"/>
     <tableColumn id="3" xr3:uid="{E98FCA84-4A7E-484B-AF5C-DED549902FE4}" name="Armor Class"/>
     <tableColumn id="4" xr3:uid="{27E3DF1B-3991-4EA8-BCD3-78A22DBFA601}" name="Min HP"/>
@@ -449,7 +454,7 @@
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +492,7 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3">
@@ -516,7 +521,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4">
@@ -545,7 +550,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5">
@@ -574,7 +579,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6">
@@ -603,7 +608,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7">
@@ -632,7 +637,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8">
@@ -661,7 +666,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9">
@@ -690,7 +695,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
       <c r="C10">
@@ -719,7 +724,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11">
@@ -748,7 +753,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="1">
         <v>6</v>
       </c>
       <c r="C12">
@@ -777,7 +782,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="B13" s="1">
         <v>7</v>
       </c>
       <c r="C13">
@@ -806,7 +811,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B14" s="1">
         <v>8</v>
       </c>
       <c r="C14">
@@ -835,7 +840,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="B15" s="1">
         <v>9</v>
       </c>
       <c r="C15">
@@ -864,7 +869,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="B16" s="1">
         <v>10</v>
       </c>
       <c r="C16">
@@ -893,7 +898,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="B17" s="1">
         <v>11</v>
       </c>
       <c r="C17">
@@ -922,7 +927,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="B18" s="1">
         <v>12</v>
       </c>
       <c r="C18">
@@ -951,7 +956,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="B19" s="1">
         <v>13</v>
       </c>
       <c r="C19">
@@ -980,7 +985,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="B20" s="1">
         <v>14</v>
       </c>
       <c r="C20">
@@ -1009,7 +1014,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="B21" s="1">
         <v>15</v>
       </c>
       <c r="C21">
@@ -1038,7 +1043,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="B22" s="1">
         <v>16</v>
       </c>
       <c r="C22">
@@ -1067,7 +1072,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="B23" s="1">
         <v>17</v>
       </c>
       <c r="C23">
@@ -1096,7 +1101,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="B24" s="1">
         <v>18</v>
       </c>
       <c r="C24">
@@ -1125,7 +1130,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="B25" s="1">
         <v>19</v>
       </c>
       <c r="C25">
@@ -1154,7 +1159,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="B26" s="1">
         <v>20</v>
       </c>
       <c r="C26">
@@ -1183,7 +1188,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="B27" s="1">
         <v>21</v>
       </c>
       <c r="C27">
@@ -1212,7 +1217,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="B28" s="1">
         <v>22</v>
       </c>
       <c r="C28">
@@ -1241,7 +1246,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="B29" s="1">
         <v>23</v>
       </c>
       <c r="C29">
@@ -1270,7 +1275,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="B30" s="1">
         <v>24</v>
       </c>
       <c r="C30">
@@ -1299,7 +1304,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="B31" s="1">
         <v>25</v>
       </c>
       <c r="C31">
@@ -1328,7 +1333,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="B32" s="1">
         <v>26</v>
       </c>
       <c r="C32">
@@ -1357,7 +1362,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33">
+      <c r="B33" s="1">
         <v>27</v>
       </c>
       <c r="C33">
@@ -1386,7 +1391,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="B34" s="1">
         <v>28</v>
       </c>
       <c r="C34">
@@ -1415,7 +1420,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="B35" s="1">
         <v>29</v>
       </c>
       <c r="C35">
@@ -1444,7 +1449,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36">
+      <c r="B36" s="1">
         <v>30</v>
       </c>
       <c r="C36">
@@ -1475,8 +1480,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>